--- a/data_migration/exports/companyposition.xlsx
+++ b/data_migration/exports/companyposition.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-09-02 23:19:50.430108-04:00</t>
+          <t>2022-09-02 23:19:50.430108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-09-02 23:19:50.430108-04:00</t>
+          <t>2022-09-02 23:19:50.430108</t>
         </is>
       </c>
       <c r="E2" t="n">
